--- a/input_data/sleeve/sleeve_info.xlsx
+++ b/input_data/sleeve/sleeve_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_24/sleeve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/sleeve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45312EA-C2E3-D442-9E69-5156E42AA07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1641AECC-10C5-794B-96E2-FAD9FFFB204E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,7 +734,7 @@
       <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P3" s="2" t="s">
@@ -743,7 +743,7 @@
       <c r="Q3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="S3" s="2" t="s">
@@ -752,7 +752,7 @@
       <c r="T3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="V3" s="2" t="s">
@@ -761,7 +761,7 @@
       <c r="W3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="X3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="Y3" s="2" t="s">
@@ -797,55 +797,55 @@
         <v>22</v>
       </c>
       <c r="I4" s="6">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="J4" s="6">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="K4" s="6">
         <v>0</v>
       </c>
       <c r="L4" s="6">
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="M4" s="6">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="N4" s="6">
         <v>40</v>
       </c>
-      <c r="O4" s="7">
-        <v>5</v>
+      <c r="O4" s="6">
+        <v>126</v>
       </c>
       <c r="P4" s="6">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="Q4" s="6">
         <v>0</v>
       </c>
-      <c r="R4" s="7">
-        <v>10</v>
+      <c r="R4" s="6">
+        <v>14</v>
       </c>
       <c r="S4" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T4" s="6">
         <v>9</v>
       </c>
-      <c r="U4" s="6">
-        <v>53</v>
+      <c r="U4" s="7">
+        <v>34</v>
       </c>
       <c r="V4" s="6">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="W4" s="6">
         <v>0</v>
       </c>
-      <c r="X4" s="6">
-        <v>39</v>
+      <c r="X4" s="7">
+        <v>60</v>
       </c>
       <c r="Y4" s="6">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="Z4" s="6">
         <v>31</v>

--- a/input_data/sleeve/sleeve_info.xlsx
+++ b/input_data/sleeve/sleeve_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_01_31/sleeve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/sleeve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1641AECC-10C5-794B-96E2-FAD9FFFB204E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A128BE-0BE3-1F4A-8FED-E747BEE21188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,7 +108,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,11 +118,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD6E5CB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE4E1"/>
       </patternFill>
     </fill>
   </fills>
@@ -205,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -216,16 +211,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -618,104 +607,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="11" t="s">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11" t="s">
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11" t="s">
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
@@ -752,7 +741,7 @@
       <c r="T3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="4" t="s">
+      <c r="U3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="V3" s="2" t="s">
@@ -761,7 +750,7 @@
       <c r="W3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="X3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Y3" s="2" t="s">
@@ -772,83 +761,83 @@
       </c>
     </row>
     <row r="4" spans="1:26" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="6">
-        <v>160</v>
-      </c>
-      <c r="J4" s="6">
-        <v>160</v>
-      </c>
-      <c r="K4" s="6">
+      <c r="I4" s="5">
+        <v>410</v>
+      </c>
+      <c r="J4" s="5">
+        <v>410</v>
+      </c>
+      <c r="K4" s="5">
         <v>0</v>
       </c>
-      <c r="L4" s="6">
-        <v>74</v>
-      </c>
-      <c r="M4" s="6">
-        <v>34</v>
-      </c>
-      <c r="N4" s="6">
-        <v>40</v>
-      </c>
-      <c r="O4" s="6">
-        <v>126</v>
-      </c>
-      <c r="P4" s="6">
-        <v>126</v>
-      </c>
-      <c r="Q4" s="6">
+      <c r="L4" s="5">
+        <v>106</v>
+      </c>
+      <c r="M4" s="5">
+        <v>42</v>
+      </c>
+      <c r="N4" s="5">
+        <v>64</v>
+      </c>
+      <c r="O4" s="5">
+        <v>285</v>
+      </c>
+      <c r="P4" s="5">
+        <v>285</v>
+      </c>
+      <c r="Q4" s="5">
         <v>0</v>
       </c>
-      <c r="R4" s="6">
-        <v>14</v>
-      </c>
-      <c r="S4" s="6">
-        <v>5</v>
-      </c>
-      <c r="T4" s="6">
+      <c r="R4" s="5">
+        <v>22</v>
+      </c>
+      <c r="S4" s="5">
         <v>9</v>
       </c>
-      <c r="U4" s="7">
-        <v>34</v>
-      </c>
-      <c r="V4" s="6">
-        <v>34</v>
-      </c>
-      <c r="W4" s="6">
+      <c r="T4" s="5">
+        <v>13</v>
+      </c>
+      <c r="U4" s="5">
+        <v>125</v>
+      </c>
+      <c r="V4" s="5">
+        <v>125</v>
+      </c>
+      <c r="W4" s="5">
         <v>0</v>
       </c>
-      <c r="X4" s="7">
-        <v>60</v>
-      </c>
-      <c r="Y4" s="6">
-        <v>29</v>
-      </c>
-      <c r="Z4" s="6">
-        <v>31</v>
+      <c r="X4" s="5">
+        <v>84</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>33</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/sleeve/sleeve_info.xlsx
+++ b/input_data/sleeve/sleeve_info.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_07/sleeve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalyukov.ns/Desktop/data_2023_02_14/sleeve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A128BE-0BE3-1F4A-8FED-E747BEE21188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BAFB48-2D0B-6A41-8851-E8725106F62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="11400" windowHeight="5900" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -789,55 +789,55 @@
         <v>410</v>
       </c>
       <c r="J4" s="5">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="K4" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L4" s="5">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M4" s="5">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="N4" s="5">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="O4" s="5">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="P4" s="5">
-        <v>285</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="5">
         <v>0</v>
       </c>
       <c r="R4" s="5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S4" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T4" s="5">
         <v>13</v>
       </c>
       <c r="U4" s="5">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="V4" s="5">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="W4" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="X4" s="5">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Y4" s="5">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="Z4" s="5">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
